--- a/apps/load_data/2020/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/05/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-\HHY0520\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0520\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2498623-35B7-4254-B149-E9C0D219028F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC4D2E-7345-4905-A202-961A47AEF7F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$264</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$259</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11700" uniqueCount="3189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11679" uniqueCount="3186">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6946,9 +6947,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8194,9 +8192,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8474,9 +8469,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10448,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260:XFD264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD173" sqref="AC173:AD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43488,12 +43480,7 @@
       <c r="AB173" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43546,7 +43533,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>113</v>
@@ -43558,10 +43545,10 @@
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43576,13 +43563,13 @@
         <v>163</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43603,19 +43590,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43653,13 +43640,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2319</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2320</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43691,12 +43678,7 @@
       <c r="AB174" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -43743,7 +43725,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BB174" s="1">
         <v>5</v>
@@ -43752,7 +43734,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>113</v>
@@ -43764,7 +43746,7 @@
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -43776,13 +43758,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -43806,16 +43788,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2018</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>130</v>
@@ -43856,13 +43838,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43894,12 +43876,7 @@
       <c r="AB175" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43946,7 +43923,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BB175" s="1">
         <v>5</v>
@@ -43955,7 +43932,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>113</v>
@@ -43967,10 +43944,10 @@
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -43985,13 +43962,13 @@
         <v>163</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44015,19 +43992,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -44065,13 +44042,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -44100,12 +44077,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -44155,7 +44127,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BB176" s="1">
         <v>5</v>
@@ -44164,7 +44136,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>113</v>
@@ -44176,7 +44148,7 @@
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>945</v>
@@ -44188,7 +44160,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44206,16 +44178,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>951</v>
@@ -44256,13 +44228,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -44294,12 +44266,7 @@
       <c r="AB177" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44349,7 +44316,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB177" s="1">
         <v>5</v>
@@ -44358,7 +44325,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>113</v>
@@ -44370,7 +44337,7 @@
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>384</v>
@@ -44382,7 +44349,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44403,13 +44370,13 @@
         <v>692</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>391</v>
@@ -44450,13 +44417,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -44485,12 +44452,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44540,7 +44502,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BB178" s="1">
         <v>5</v>
@@ -44549,7 +44511,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>113</v>
@@ -44561,7 +44523,7 @@
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1080</v>
@@ -44573,7 +44535,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44591,16 +44553,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2370</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>1085</v>
@@ -44641,13 +44603,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44682,12 +44644,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44734,7 +44691,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BB179" s="1">
         <v>5</v>
@@ -44743,7 +44700,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>113</v>
@@ -44755,7 +44712,7 @@
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>425</v>
@@ -44770,13 +44727,13 @@
         <v>119</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44794,16 +44751,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>432</v>
@@ -44844,13 +44801,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44879,12 +44836,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44934,7 +44886,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BB180" s="1">
         <v>5</v>
@@ -44943,7 +44895,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -44955,7 +44907,7 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>605</v>
@@ -44967,7 +44919,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -44985,16 +44937,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>611</v>
@@ -45035,13 +44987,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -45070,12 +45022,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45125,7 +45072,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BB181" s="1">
         <v>5</v>
@@ -45134,7 +45081,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -45158,7 +45105,7 @@
         <v>163</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45176,13 +45123,13 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="CE181" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="CG181" s="1" t="s">
         <v>1037</v>
@@ -45226,13 +45173,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45261,12 +45208,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45313,7 +45255,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BB182" s="1">
         <v>5</v>
@@ -45322,7 +45264,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45334,10 +45276,10 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45349,13 +45291,13 @@
         <v>232</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45373,19 +45315,19 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>429</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2417</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45399,13 +45341,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>101</v>
@@ -45417,19 +45359,19 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45461,12 +45403,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45516,7 +45453,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BB183" s="1">
         <v>5</v>
@@ -45525,7 +45462,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45537,7 +45474,7 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>118</v>
@@ -45546,7 +45483,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45567,16 +45504,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>130</v>
@@ -45617,13 +45554,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45652,12 +45589,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -45704,7 +45636,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BB184" s="1">
         <v>5</v>
@@ -45713,7 +45645,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45725,10 +45657,10 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>118</v>
@@ -45740,13 +45672,13 @@
         <v>119</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45764,19 +45696,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1816</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -45814,13 +45746,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45901,7 +45833,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BB185" s="1">
         <v>5</v>
@@ -45910,7 +45842,7 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -45922,7 +45854,7 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1864</v>
@@ -45937,7 +45869,7 @@
         <v>163</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -45955,16 +45887,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>429</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1868</v>
@@ -46005,13 +45937,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -46086,7 +46018,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB186" s="1">
         <v>5</v>
@@ -46095,7 +46027,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -46107,7 +46039,7 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>1874</v>
@@ -46122,13 +46054,13 @@
         <v>232</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BS186" s="3">
         <v>36099</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46146,16 +46078,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>1880</v>
@@ -46196,13 +46128,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46277,7 +46209,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BB187" s="1">
         <v>5</v>
@@ -46286,7 +46218,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46298,10 +46230,10 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46313,13 +46245,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BS187" s="3">
         <v>37735</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46337,19 +46269,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>130</v>
@@ -46387,13 +46319,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46471,7 +46403,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BB188" s="1">
         <v>5</v>
@@ -46480,7 +46412,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46492,7 +46424,7 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46501,7 +46433,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46519,16 +46451,16 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="CD188" s="1" t="s">
         <v>886</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>130</v>
@@ -46551,7 +46483,7 @@
         <v>188</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>101</v>
@@ -46563,19 +46495,19 @@
         <v>94</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46611,7 +46543,7 @@
         <v>106</v>
       </c>
       <c r="AG189" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="AH189" s="1" t="s">
         <v>1941</v>
@@ -46656,7 +46588,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BB189" s="1">
         <v>5</v>
@@ -46665,7 +46597,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46677,7 +46609,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46686,7 +46618,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46695,7 +46627,7 @@
         <v>0</v>
       </c>
       <c r="BZ189" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="CA189" s="1" t="s">
         <v>124</v>
@@ -46707,13 +46639,13 @@
         <v>1610</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>130</v>
@@ -46754,13 +46686,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46838,7 +46770,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BB190" s="1">
         <v>5</v>
@@ -46847,7 +46779,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46859,10 +46791,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -46874,13 +46806,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BS190" s="3">
         <v>43602</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46904,13 +46836,13 @@
         <v>973</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46948,13 +46880,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -47032,7 +46964,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BB191" s="1">
         <v>5</v>
@@ -47041,7 +46973,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -47053,7 +46985,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>605</v>
@@ -47065,7 +46997,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47083,16 +47015,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>611</v>
@@ -47133,13 +47065,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -47178,7 +47110,7 @@
         <v>42247</v>
       </c>
       <c r="AD192" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="AF192" s="1" t="s">
         <v>106</v>
@@ -47232,7 +47164,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -47244,10 +47176,10 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47259,13 +47191,13 @@
         <v>232</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BS192" s="3">
         <v>36580</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47286,7 +47218,7 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>299</v>
@@ -47295,10 +47227,10 @@
         <v>1639</v>
       </c>
       <c r="CG192" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>130</v>
@@ -47336,13 +47268,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47423,7 +47355,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47435,7 +47367,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1864</v>
@@ -47450,13 +47382,13 @@
         <v>119</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BS193" s="3">
         <v>37747</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47480,10 +47412,10 @@
         <v>680</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1868</v>
@@ -47524,13 +47456,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47614,7 +47546,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47626,7 +47558,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47635,7 +47567,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47653,16 +47585,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>130</v>
@@ -47703,13 +47635,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47793,7 +47725,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47805,7 +47737,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47814,7 +47746,7 @@
         <v>163</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47832,16 +47764,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>130</v>
@@ -47882,13 +47814,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47969,7 +47901,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47981,10 +47913,10 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -47996,13 +47928,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BS196" s="3">
         <v>37334</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48023,16 +47955,16 @@
         <v>527</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -48070,16 +48002,16 @@
         <v>394</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48160,7 +48092,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -48172,7 +48104,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>2085</v>
@@ -48187,13 +48119,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BS197" s="3">
         <v>37904</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48214,13 +48146,13 @@
         <v>973</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>2091</v>
@@ -48243,7 +48175,7 @@
         <v>188</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>101</v>
@@ -48255,19 +48187,19 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48348,7 +48280,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48360,7 +48292,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48372,13 +48304,13 @@
         <v>119</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BS198" s="3">
         <v>36111</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48387,7 +48319,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48396,16 +48328,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>130</v>
@@ -48446,13 +48378,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48533,7 +48465,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48545,7 +48477,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1920</v>
@@ -48560,13 +48492,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BS199" s="3">
         <v>37785</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48584,16 +48516,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>1927</v>
@@ -48610,10 +48542,10 @@
         <v>88</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>152</v>
@@ -48628,19 +48560,19 @@
         <v>94</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48724,7 +48656,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48736,7 +48668,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48745,7 +48677,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48754,7 +48686,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>124</v>
@@ -48766,13 +48698,13 @@
         <v>1278</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>130</v>
@@ -48813,13 +48745,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48897,7 +48829,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BB201" s="1">
         <v>5</v>
@@ -48906,7 +48838,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48927,7 +48859,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48945,13 +48877,13 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="CE201" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="CG201" s="1" t="s">
         <v>1048</v>
@@ -48995,13 +48927,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -49079,7 +49011,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BB202" s="1">
         <v>5</v>
@@ -49088,7 +49020,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -49100,7 +49032,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1864</v>
@@ -49112,7 +49044,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49130,16 +49062,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1868</v>
@@ -49180,13 +49112,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49264,7 +49196,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BB203" s="1">
         <v>5</v>
@@ -49273,7 +49205,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49285,7 +49217,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49294,7 +49226,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49315,13 +49247,13 @@
         <v>1134</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2651</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2652</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>130</v>
@@ -49362,13 +49294,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49446,7 +49378,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BB204" s="1">
         <v>5</v>
@@ -49455,7 +49387,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49467,7 +49399,7 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1864</v>
@@ -49485,13 +49417,13 @@
         <v>163</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BS204" s="3">
         <v>37513</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49509,16 +49441,16 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1868</v>
@@ -49559,13 +49491,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49646,7 +49578,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49658,7 +49590,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2085</v>
@@ -49673,13 +49605,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BS205" s="3">
         <v>41024</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49697,16 +49629,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>2091</v>
@@ -49747,13 +49679,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49789,7 +49721,7 @@
         <v>106</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>1941</v>
@@ -49834,7 +49766,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BB206" s="1">
         <v>5</v>
@@ -49843,7 +49775,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49855,7 +49787,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>384</v>
@@ -49870,13 +49802,13 @@
         <v>119</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BS206" s="3">
         <v>34808</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49894,16 +49826,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>391</v>
@@ -49944,13 +49876,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -50025,7 +49957,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BB207" s="1">
         <v>5</v>
@@ -50034,7 +49966,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -50046,7 +49978,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>945</v>
@@ -50061,13 +49993,13 @@
         <v>102</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BS207" s="3">
         <v>37336</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50085,16 +50017,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2698</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>951</v>
@@ -50135,13 +50067,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -50219,7 +50151,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BB208" s="1">
         <v>5</v>
@@ -50228,7 +50160,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -50240,7 +50172,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BI208" s="1" t="s">
         <v>593</v>
@@ -50252,7 +50184,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50270,16 +50202,16 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>599</v>
@@ -50320,13 +50252,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50410,7 +50342,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50422,7 +50354,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -50431,7 +50363,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50449,16 +50381,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>130</v>
@@ -50499,13 +50431,13 @@
         <v>2174</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2721</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50540,12 +50472,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>106</v>
       </c>
@@ -50595,7 +50522,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="BB210" s="1">
         <v>5</v>
@@ -50604,7 +50531,7 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50616,7 +50543,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1802</v>
@@ -50628,7 +50555,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50640,7 +50567,7 @@
         <v>110</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50652,13 +50579,13 @@
         <v>1184</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>1808</v>
@@ -50699,10 +50626,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -50726,7 +50653,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>380</v>
@@ -50780,10 +50707,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50794,13 +50721,13 @@
         <v>88</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>2419</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>101</v>
@@ -50812,16 +50739,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -50845,7 +50772,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>380</v>
@@ -50890,7 +50817,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50899,10 +50826,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50937,10 +50864,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -50964,7 +50891,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>380</v>
@@ -51018,10 +50945,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51038,7 +50965,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -51050,16 +50977,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -51128,7 +51055,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51137,10 +51064,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51175,10 +51102,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -51256,10 +51183,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51276,7 +51203,7 @@
         <v>90</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>92</v>
@@ -51288,16 +51215,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51366,7 +51293,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>124</v>
@@ -51375,10 +51302,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -51413,10 +51340,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -51494,10 +51421,10 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -51532,13 +51459,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2755</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51567,12 +51494,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -51625,7 +51547,7 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51637,7 +51559,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>384</v>
@@ -51652,13 +51574,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="BS218" s="3">
         <v>36306</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51676,16 +51598,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>391</v>
@@ -51726,13 +51648,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2766</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51761,12 +51683,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -51822,7 +51739,7 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51834,7 +51751,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>384</v>
@@ -51846,7 +51763,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51864,16 +51781,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>391</v>
@@ -51914,13 +51831,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51952,12 +51869,7 @@
       <c r="AB220" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -52010,7 +51922,7 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -52022,7 +51934,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>384</v>
@@ -52037,13 +51949,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="BS220" s="3">
         <v>38234</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52061,16 +51973,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="CG220" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>391</v>
@@ -52111,13 +52023,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -52146,12 +52058,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -52207,7 +52114,7 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52219,7 +52126,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>945</v>
@@ -52231,7 +52138,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52249,16 +52156,16 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>951</v>
@@ -52299,13 +52206,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2796</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52334,12 +52241,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -52392,7 +52294,7 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52404,7 +52306,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>605</v>
@@ -52419,13 +52321,13 @@
         <v>232</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="BS222" s="3">
         <v>37069</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52446,13 +52348,13 @@
         <v>767</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CG222" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>611</v>
@@ -52493,13 +52395,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52528,12 +52430,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -52589,7 +52486,7 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52601,7 +52498,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>945</v>
@@ -52613,7 +52510,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52631,16 +52528,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2812</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>951</v>
@@ -52681,13 +52578,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52716,12 +52613,7 @@
       <c r="AA224" s="1">
         <v>0</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>2817</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -52768,7 +52660,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BB224" s="1">
         <v>5</v>
@@ -52777,7 +52669,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52789,10 +52681,10 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52804,13 +52696,13 @@
         <v>232</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="BS224" s="3">
         <v>35125</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52828,19 +52720,19 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52878,13 +52770,13 @@
         <v>394</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52968,7 +52860,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
@@ -52977,7 +52869,7 @@
         <v>118</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52995,13 +52887,13 @@
         <v>92</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>130</v>
@@ -53045,13 +52937,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -53135,7 +53027,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>115</v>
@@ -53144,7 +53036,7 @@
         <v>118</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53165,10 +53057,10 @@
         <v>566</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="CG226" s="1" t="s">
         <v>130</v>
@@ -53212,13 +53104,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -53305,7 +53197,7 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -53317,7 +53209,7 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53338,16 +53230,16 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CE227" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CG227" s="1" t="s">
         <v>2848</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2849</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53391,10 +53283,10 @@
         <v>258</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>260</v>
@@ -53424,7 +53316,7 @@
         <v>42582</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
@@ -53481,13 +53373,13 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53532,10 +53424,10 @@
         <v>269</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53555,7 +53447,7 @@
         <v>188</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>92</v>
@@ -53567,22 +53459,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="Q229" s="3">
         <v>17060</v>
@@ -53615,13 +53507,13 @@
         <v>42628</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>138</v>
@@ -53666,22 +53558,22 @@
         <v>101</v>
       </c>
       <c r="AZ229" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="BB229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="BB229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD229" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="BH229" s="1" t="s">
-        <v>2869</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53690,7 +53582,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53699,7 +53591,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>124</v>
@@ -53714,13 +53606,13 @@
         <v>126</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53734,13 +53626,13 @@
         <v>88</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>101</v>
@@ -53752,22 +53644,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="Q230" s="3">
         <v>26864</v>
@@ -53797,7 +53689,7 @@
         <v>42735</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>106</v>
@@ -53851,10 +53743,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53866,13 +53758,13 @@
         <v>232</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="BS230" s="3">
         <v>102</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53884,7 +53776,7 @@
         <v>110</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>124</v>
@@ -53893,16 +53785,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="CG230" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="CD230" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2891</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53946,10 +53838,10 @@
         <v>1847</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>1849</v>
@@ -53982,7 +53874,7 @@
         <v>39800</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>244</v>
@@ -54036,10 +53928,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54090,7 +53982,7 @@
         <v>1856</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -54113,7 +54005,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -54125,22 +54017,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="Q232" s="3">
         <v>17470</v>
@@ -54170,7 +54062,7 @@
         <v>43100</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -54227,10 +54119,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54239,7 +54131,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54263,16 +54155,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54295,7 +54187,7 @@
         <v>90</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>101</v>
@@ -54307,22 +54199,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="Q233" s="3">
         <v>23356</v>
@@ -54349,7 +54241,7 @@
         <v>43105</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>106</v>
@@ -54403,10 +54295,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54418,13 +54310,13 @@
         <v>102</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BS233" s="3">
         <v>34412</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54433,7 +54325,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54442,16 +54334,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54468,13 +54360,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2419</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -54486,22 +54378,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="Q234" s="3">
         <v>17726</v>
@@ -54534,7 +54426,7 @@
         <v>43312</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>244</v>
@@ -54585,7 +54477,7 @@
         <v>101</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="BB234" s="1">
         <v>0</v>
@@ -54594,10 +54486,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54606,7 +54498,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54615,7 +54507,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54624,16 +54516,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CE234" s="1" t="s">
         <v>908</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54656,7 +54548,7 @@
         <v>90</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>92</v>
@@ -54668,22 +54560,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="Q235" s="3">
         <v>17041</v>
@@ -54710,7 +54602,7 @@
         <v>42735</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>106</v>
@@ -54767,10 +54659,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54779,7 +54671,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54791,7 +54683,7 @@
         <v>110</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54800,16 +54692,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="CG235" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="CD235" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>2939</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54826,13 +54718,13 @@
         <v>88</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>2419</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>101</v>
@@ -54844,22 +54736,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="Q236" s="3">
         <v>30147</v>
@@ -54882,17 +54774,12 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2723</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>380</v>
@@ -54940,10 +54827,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54955,13 +54842,13 @@
         <v>102</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BS236" s="3">
         <v>37124</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -54970,7 +54857,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -54979,16 +54866,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -55029,16 +54916,16 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="Q237" s="3">
         <v>17821</v>
@@ -55074,13 +54961,13 @@
         <v>43388</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>1255</v>
@@ -55125,7 +55012,7 @@
         <v>101</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BB237" s="1">
         <v>0</v>
@@ -55134,10 +55021,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55146,7 +55033,7 @@
         <v>105</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55164,16 +55051,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CE237" s="1" t="s">
         <v>514</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55187,10 +55074,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1253</v>
@@ -55205,7 +55092,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1253</v>
@@ -55214,13 +55101,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -55274,7 +55161,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55307,7 +55194,7 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>113</v>
@@ -55319,13 +55206,13 @@
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55343,16 +55230,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55366,10 +55253,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1253</v>
@@ -55384,7 +55271,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1253</v>
@@ -55393,13 +55280,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -55450,7 +55337,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55486,7 +55373,7 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -55498,13 +55385,13 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55531,10 +55418,10 @@
         <v>1082</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55548,10 +55435,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1253</v>
@@ -55566,7 +55453,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1253</v>
@@ -55575,13 +55462,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55632,7 +55519,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55668,7 +55555,7 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -55680,13 +55567,13 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55707,16 +55594,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>2992</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>2995</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55730,10 +55617,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1253</v>
@@ -55748,7 +55635,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1253</v>
@@ -55757,13 +55644,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55850,7 +55737,7 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>113</v>
@@ -55862,13 +55749,13 @@
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55889,7 +55776,7 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>608</v>
@@ -55898,7 +55785,7 @@
         <v>514</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55912,10 +55799,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1253</v>
@@ -55930,7 +55817,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1253</v>
@@ -55939,13 +55826,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55999,7 +55886,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56035,7 +55922,7 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -56047,13 +55934,13 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56077,13 +55964,13 @@
         <v>498</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56097,10 +55984,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1253</v>
@@ -56115,7 +56002,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1253</v>
@@ -56124,13 +56011,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -56217,7 +56104,7 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -56229,13 +56116,13 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56256,16 +56143,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>622</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56279,10 +56166,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1253</v>
@@ -56297,7 +56184,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1253</v>
@@ -56306,13 +56193,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56348,7 +56235,7 @@
         <v>106</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1255</v>
@@ -56366,7 +56253,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56402,7 +56289,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -56414,13 +56301,13 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56441,16 +56328,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56464,10 +56351,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1253</v>
@@ -56482,7 +56369,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1253</v>
@@ -56491,13 +56378,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56551,7 +56438,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56587,7 +56474,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -56599,13 +56486,13 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56629,13 +56516,13 @@
         <v>997</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56649,10 +56536,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1253</v>
@@ -56667,7 +56554,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1253</v>
@@ -56676,13 +56563,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56736,7 +56623,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56772,7 +56659,7 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -56784,13 +56671,13 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56817,10 +56704,10 @@
         <v>2141</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56834,10 +56721,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1253</v>
@@ -56852,7 +56739,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1253</v>
@@ -56861,13 +56748,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2249</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56903,7 +56790,7 @@
         <v>106</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1255</v>
@@ -56918,7 +56805,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56951,19 +56838,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56981,16 +56868,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3055</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3056</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3057</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3058</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -57004,10 +56891,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1253</v>
@@ -57022,7 +56909,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1253</v>
@@ -57031,13 +56918,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2255</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57121,19 +57008,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57154,16 +57041,16 @@
         <v>2187</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3064</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3067</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57177,10 +57064,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1253</v>
@@ -57195,7 +57082,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1253</v>
@@ -57204,13 +57091,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57294,7 +57181,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -57306,13 +57193,13 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57333,13 +57220,13 @@
         <v>1198</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57353,10 +57240,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1253</v>
@@ -57371,7 +57258,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1253</v>
@@ -57380,13 +57267,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -57437,7 +57324,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57473,7 +57360,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -57485,13 +57372,13 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57512,16 +57399,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57535,10 +57422,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1253</v>
@@ -57553,7 +57440,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1253</v>
@@ -57562,13 +57449,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -57622,7 +57509,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57658,7 +57545,7 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -57670,13 +57557,13 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57697,16 +57584,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3093</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3095</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3096</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57720,10 +57607,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1253</v>
@@ -57738,7 +57625,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1253</v>
@@ -57747,13 +57634,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57807,7 +57694,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57843,7 +57730,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -57855,13 +57742,13 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57882,16 +57769,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3103</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3104</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3106</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57905,10 +57792,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1253</v>
@@ -57923,7 +57810,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1253</v>
@@ -57932,13 +57819,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -58025,7 +57912,7 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -58037,13 +57924,13 @@
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -58064,16 +57951,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>219</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -58087,10 +57974,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1253</v>
@@ -58105,7 +57992,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1253</v>
@@ -58114,13 +58001,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -58174,7 +58061,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58210,7 +58097,7 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -58222,19 +58109,19 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -58252,16 +58139,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58275,10 +58162,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1253</v>
@@ -58293,7 +58180,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1253</v>
@@ -58302,13 +58189,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58359,7 +58246,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58395,7 +58282,7 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -58407,13 +58294,13 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58434,16 +58321,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58457,10 +58344,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1253</v>
@@ -58475,7 +58362,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1253</v>
@@ -58484,13 +58371,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58517,7 +58404,7 @@
         <v>0</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>380</v>
@@ -58532,7 +58419,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58562,7 +58449,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58574,13 +58461,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58598,16 +58485,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58621,10 +58508,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1253</v>
@@ -58639,7 +58526,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1253</v>
@@ -58648,13 +58535,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58738,7 +58625,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58750,13 +58637,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58774,16 +58661,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3149</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3150</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3151</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3152</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58797,10 +58684,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1253</v>
@@ -58815,7 +58702,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1253</v>
@@ -58824,13 +58711,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58917,7 +58804,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -58929,13 +58816,13 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58953,16 +58840,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3159</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3160</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3161</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3162</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58976,10 +58863,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1253</v>
@@ -58994,7 +58881,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1253</v>
@@ -59003,13 +58890,13 @@
         <v>152</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -59018,7 +58905,7 @@
         <v>101</v>
       </c>
       <c r="Q259" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>136</v>
@@ -59060,7 +58947,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59093,7 +58980,7 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BE259" s="1" t="s">
         <v>113</v>
@@ -59105,13 +58992,13 @@
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59129,16 +59016,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3173</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59285,7 +59172,7 @@
         <v>20</v>
       </c>
       <c r="BD260" s="4" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BE260" s="4"/>
       <c r="BF260" s="4"/>
@@ -59293,7 +59180,7 @@
         <v>115</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -59346,7 +59233,7 @@
       </c>
       <c r="CF260" s="4"/>
       <c r="CG260" s="4" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH260" s="4" t="s">
         <v>130</v>
@@ -59496,7 +59383,7 @@
         <v>20</v>
       </c>
       <c r="BD261" s="4" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BE261" s="4"/>
       <c r="BF261" s="4"/>
@@ -59504,7 +59391,7 @@
         <v>115</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -59561,7 +59448,7 @@
       </c>
       <c r="CF261" s="4"/>
       <c r="CG261" s="4" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH261" s="4" t="s">
         <v>130</v>
@@ -59713,7 +59600,7 @@
         <v>20</v>
       </c>
       <c r="BD262" s="4" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BE262" s="4"/>
       <c r="BF262" s="4"/>
@@ -59721,7 +59608,7 @@
         <v>115</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -59778,7 +59665,7 @@
       </c>
       <c r="CF262" s="4"/>
       <c r="CG262" s="4" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CH262" s="4" t="s">
         <v>130</v>
@@ -59929,7 +59816,7 @@
         <v>20</v>
       </c>
       <c r="BD263" s="4" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BE263" s="4"/>
       <c r="BF263" s="4"/>
@@ -59937,7 +59824,7 @@
         <v>115</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -59987,7 +59874,7 @@
       </c>
       <c r="CF263" s="4"/>
       <c r="CG263" s="4" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CH263" s="4" t="s">
         <v>130</v>
@@ -60028,14 +59915,14 @@
         <v>96</v>
       </c>
       <c r="K264" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="L264" s="4" t="s">
         <v>2615</v>
-      </c>
-      <c r="L264" s="4" t="s">
-        <v>2616</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="4" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>100</v>
@@ -60134,7 +60021,7 @@
         <v>20</v>
       </c>
       <c r="BD264" s="4" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BE264" s="4"/>
       <c r="BF264" s="4"/>
@@ -60142,7 +60029,7 @@
         <v>115</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -60157,7 +60044,7 @@
       <c r="BQ264" s="4"/>
       <c r="BR264" s="4"/>
       <c r="BT264" s="4" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BU264" s="4" t="s">
         <v>122</v>
@@ -60181,14 +60068,14 @@
         <v>1278</v>
       </c>
       <c r="CD264" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="CE264" s="4" t="s">
         <v>2622</v>
-      </c>
-      <c r="CE264" s="4" t="s">
-        <v>2623</v>
       </c>
       <c r="CF264" s="4"/>
       <c r="CG264" s="4" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CH264" s="4" t="s">
         <v>130</v>
@@ -60198,6 +60085,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI264" xr:uid="{B7E2E035-EBD8-4ED4-B3A3-9761361DE1F0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>